--- a/Src/test-res/gc_bw/初版、第二版、第三版/绘图.xlsx
+++ b/Src/test-res/gc_bw/初版、第二版、第三版/绘图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-res\gc_bw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-res\gc_bw\初版、第二版、第三版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F60712-1B02-426C-A186-8F31D2D0C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0025163-E71A-4ACA-A894-5EB5D40FCAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>hoitfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>gc-0.5:0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoitfs-adptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoitfs-adaptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,10 +113,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -280,7 +288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hoitfs-opt</c:v>
+                  <c:v>hoitfs-adptive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -402,7 +410,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -911,7 +918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hoitfs-opt</c:v>
+                  <c:v>hoitfs-adaptive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2707,28 +2714,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5660,40 +5667,40 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <f>AVERAGE(A3:A102)</f>
+      <c r="A103" s="1">
+        <f t="shared" ref="A103:I103" si="0">AVERAGE(A3:A102)</f>
         <v>382.34470000000033</v>
       </c>
-      <c r="B103" s="2">
-        <f>AVERAGE(B3:B102)</f>
+      <c r="B103" s="1">
+        <f t="shared" si="0"/>
         <v>535.69519999999989</v>
       </c>
-      <c r="C103" s="2">
-        <f>AVERAGE(C3:C102)</f>
+      <c r="C103" s="1">
+        <f t="shared" si="0"/>
         <v>88.316500000000019</v>
       </c>
-      <c r="D103" s="2">
-        <f>AVERAGE(D3:D102)</f>
+      <c r="D103" s="1">
+        <f t="shared" si="0"/>
         <v>373.95760000000024</v>
       </c>
-      <c r="E103" s="2">
-        <f>AVERAGE(E3:E102)</f>
+      <c r="E103" s="1">
+        <f t="shared" si="0"/>
         <v>405.47989999999993</v>
       </c>
-      <c r="F103" s="2">
-        <f>AVERAGE(F3:F102)</f>
+      <c r="F103" s="1">
+        <f t="shared" si="0"/>
         <v>76.688699999999983</v>
       </c>
-      <c r="G103" s="2">
-        <f>AVERAGE(G3:G102)</f>
+      <c r="G103" s="1">
+        <f t="shared" si="0"/>
         <v>231.1466999999999</v>
       </c>
-      <c r="H103" s="2">
-        <f>AVERAGE(H3:H102)</f>
+      <c r="H103" s="1">
+        <f t="shared" si="0"/>
         <v>658.80950000000007</v>
       </c>
-      <c r="I103" s="2">
-        <f>AVERAGE(I3:I102)</f>
+      <c r="I103" s="1">
+        <f t="shared" si="0"/>
         <v>79.322300000000013</v>
       </c>
     </row>
@@ -5745,7 +5752,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B108">
         <v>535.6952</v>
@@ -5757,7 +5764,7 @@
         <v>658.80949999999996</v>
       </c>
       <c r="H108" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I108">
         <v>502</v>
